--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1360.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1360.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.182499121852322</v>
+        <v>0.9146023988723755</v>
       </c>
       <c r="B1">
-        <v>2.601866419713021</v>
+        <v>2.802084684371948</v>
       </c>
       <c r="C1">
-        <v>3.918190995936024</v>
+        <v>8.826982498168945</v>
       </c>
       <c r="D1">
-        <v>2.72376819852167</v>
+        <v>2.034114122390747</v>
       </c>
       <c r="E1">
-        <v>1.14756918828418</v>
+        <v>1.152721166610718</v>
       </c>
     </row>
   </sheetData>
